--- a/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>-1,64%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 19,45</t>
+          <t>-8,79; 29,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 3,46</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 14,23</t>
+          <t>-9,81; 7,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 92,08</t>
+          <t>-34,14; 293,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 3,75</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 17,46</t>
+          <t>-9,84; 8,46</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-19,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 7,97</t>
+          <t>-19,67; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,88</t>
+          <t>1,59; 24,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 7,97</t>
+          <t>-1,46; 8,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 23,0</t>
+          <t>-38,79; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 17,22</t>
+          <t>1,85; 34,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,13</t>
+          <t>-1,47; 9,35</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 21,03</t>
+          <t>-4,24; 18,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 14,91</t>
+          <t>-1,34; 16,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 11,48</t>
+          <t>0,83; 17,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 49,84</t>
+          <t>-7,1; 41,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 18,41</t>
+          <t>-1,36; 21,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 13,33</t>
+          <t>0,88; 21,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 10,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 27,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 9,33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 15,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 9,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 23,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 19,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>57,27%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.69342441579008</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.465124915892328</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8506730653937256</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.5726789379367677</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.05465124915892328</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.009082890620307624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 29,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 7,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,14; 293,77</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 0,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 8,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.786139038846311</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.03260041617544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.472964800759492</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3414014161253828</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1903260041617544</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.07548724057543989</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.97774082541983</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.6922366108843</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.937728953794724</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2119607163184138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,11</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,9%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-19,67; 2,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 24,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 8,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-38,79; 5,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 34,63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 9,35</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-9.258489284070375</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.679229751691343</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.731891304768863</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1989625970558147</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1144255207081329</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.02883113263693674</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,95%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-19.6655279589324</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.36203548560982</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.235112990498049</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3879131405896182</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.02702574117493745</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.01292404107436809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 18,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 16,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 17,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 41,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 21,88</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 21,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.662695922691694</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.18134988944859</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.658654684383998</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.05791284697249782</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.334580071730547</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.08384676880653059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.822033295896379</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.623795295335333</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.155205102822726</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1294968741265925</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.07573591048272657</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.07949459764885689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.240277667900787</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.085243123223912</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.6715925142269159</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.07095153105149081</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.0114183641393235</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.007290453828115225</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.48944583909027</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.97093109413256</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.9223635345916</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4141521988025386</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2212226183653004</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2244760712198728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 9,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 15,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 9,25</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 23,68</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 19,2</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 10,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.8267832912738471</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.374539282669756</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.064702157186185</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01830339603498417</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.07255838777504682</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.04376611699096647</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.031471875183184</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.07204043932512</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3979693489168414</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1412732518546121</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01167804948937188</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.004227386834075016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.334942686109258</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.35709355345084</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.254075584230776</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2367629071330554</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1804976227758733</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1035544870682057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
